--- a/ScenarioTest_finalweb.xlsx
+++ b/ScenarioTest_finalweb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095089\Documents\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095089\Documents\QA\FinalProjectWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
   <si>
     <t>Created By</t>
   </si>
@@ -179,9 +179,6 @@
     <t>5. Click button login</t>
   </si>
   <si>
-    <t>open should my account page</t>
-  </si>
-  <si>
     <t>open login page</t>
   </si>
   <si>
@@ -255,6 +252,41 @@
   </si>
   <si>
     <t>should open card page</t>
+  </si>
+  <si>
+    <t>PRODUCT_001</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>Add rating</t>
+  </si>
+  <si>
+    <t>3. Click image product</t>
+  </si>
+  <si>
+    <t>4. Click review</t>
+  </si>
+  <si>
+    <t>5. Input rating</t>
+  </si>
+  <si>
+    <t>6. Input data field</t>
+  </si>
+  <si>
+    <t>7. Click checkbox</t>
+  </si>
+  <si>
+    <t>8. Click submit</t>
+  </si>
+  <si>
+    <t>1. comment : coba
+2. name : akuntest
+3. email: akuntest@gmail.com</t>
+  </si>
+  <si>
+    <t>success add rating</t>
   </si>
 </sst>
 </file>
@@ -326,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -545,11 +577,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -602,31 +671,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,71 +701,95 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -963,22 +1031,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="49"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1033,22 +1101,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1101,15 +1169,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="56" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1149,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="25"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="10">
         <v>1</v>
       </c>
@@ -1310,20 +1378,20 @@
       <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29" t="s">
+      <c r="E11" s="55"/>
+      <c r="F11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="2"/>
@@ -1347,27 +1415,27 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="45" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="2"/>
@@ -1391,21 +1459,21 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="33" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1427,21 +1495,21 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="33" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="22" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="31" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1463,19 +1531,19 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="32" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="47"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="4"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1497,21 +1565,21 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="38" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="38" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="49"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1524,25 +1592,25 @@
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="51" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="45" t="s">
         <v>11</v>
       </c>
       <c r="J17" s="3"/>
@@ -1557,21 +1625,21 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="33" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="47"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1584,21 +1652,21 @@
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="33" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="22" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="31" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="47"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1611,19 +1679,19 @@
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="32" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="47"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1636,21 +1704,21 @@
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="38" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="49"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1663,28 +1731,28 @@
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="48" t="s">
-        <v>11</v>
+      <c r="I22" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1698,21 +1766,21 @@
       <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="33" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="47"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1725,21 +1793,21 @@
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="33" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="47"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="46"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1752,19 +1820,19 @@
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="32" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="47"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1777,21 +1845,21 @@
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="38" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="49"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="47"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1804,27 +1872,27 @@
       <c r="S26" s="3"/>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36" t="s">
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="45" t="s">
         <v>11</v>
       </c>
       <c r="J27" s="3"/>
@@ -1839,21 +1907,21 @@
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="33" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="47"/>
+      <c r="I28" s="46"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1866,21 +1934,21 @@
       <c r="S28" s="3"/>
     </row>
     <row r="29" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="33" t="s">
-        <v>53</v>
+      <c r="A29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="47"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="46"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1893,21 +1961,21 @@
       <c r="S29" s="3"/>
     </row>
     <row r="30" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="32" t="s">
-        <v>54</v>
+      <c r="A30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="47"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="46"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1920,21 +1988,21 @@
       <c r="S30" s="3"/>
     </row>
     <row r="31" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="31" t="s">
-        <v>55</v>
+      <c r="A31" s="37"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="47"/>
+      <c r="G31" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="46"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1947,23 +2015,23 @@
       <c r="S31" s="3"/>
     </row>
     <row r="32" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="59" t="s">
+      <c r="D32" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="48" t="s">
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="45" t="s">
         <v>11</v>
       </c>
       <c r="J32" s="3"/>
@@ -1978,21 +2046,21 @@
       <c r="S32" s="3"/>
     </row>
     <row r="33" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="60"/>
-      <c r="D33" s="55" t="s">
-        <v>63</v>
+      <c r="D33" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="47"/>
+      <c r="G33" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="46"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2005,19 +2073,19 @@
       <c r="S33" s="3"/>
     </row>
     <row r="34" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="60"/>
-      <c r="D34" s="55" t="s">
-        <v>64</v>
+      <c r="D34" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="33">
+      <c r="F34" s="22">
         <v>2</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="47"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="46"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2030,21 +2098,21 @@
       <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="49"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="47"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2056,62 +2124,92 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-    </row>
-    <row r="37" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="37"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="46"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+    <row r="38" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38" s="46"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+    <row r="39" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="37"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="46"/>
+    </row>
+    <row r="40" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="37"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="46"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2123,16 +2221,20 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+    <row r="41" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="46"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2144,16 +2246,18 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+    <row r="42" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="46"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2165,16 +2269,22 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+    <row r="43" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="38"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="47"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -7890,11 +8000,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
+  <mergeCells count="32">
     <mergeCell ref="I22:I26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="B27:B31"/>
@@ -7902,14 +8008,6 @@
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="I17:I21"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E3:F3"/>
@@ -7919,6 +8017,22 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/ScenarioTest_finalweb.xlsx
+++ b/ScenarioTest_finalweb.xlsx
@@ -260,9 +260,6 @@
     <t>PRODUCT</t>
   </si>
   <si>
-    <t>Add rating</t>
-  </si>
-  <si>
     <t>3. Click image product</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>success add rating</t>
+  </si>
+  <si>
+    <t>WP-3  Winda - Add rating</t>
   </si>
 </sst>
 </file>
@@ -725,13 +725,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,25 +746,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -785,6 +782,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" workbookViewId="0">
       <selection activeCell="C36" sqref="C36:C43"/>
     </sheetView>
   </sheetViews>
@@ -1031,22 +1031,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49"/>
+      <c r="H1" s="48"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1101,22 +1101,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1169,15 +1169,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1217,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="57"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="10">
         <v>1</v>
       </c>
@@ -1378,10 +1378,10 @@
       <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="55"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="18" t="s">
         <v>18</v>
       </c>
@@ -1415,13 +1415,13 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -1435,7 +1435,7 @@
       <c r="H12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="2"/>
@@ -1459,9 +1459,9 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="22" t="s">
         <v>32</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="H13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="46"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1495,9 +1495,9 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="22" t="s">
         <v>33</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="H14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="46"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1531,9 +1531,9 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="43"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="21" t="s">
         <v>35</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="46"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="4"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1565,9 +1565,9 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="27" t="s">
         <v>34</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="H16" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1592,11 +1592,11 @@
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="43" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -1610,7 +1610,7 @@
       <c r="H17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J17" s="3"/>
@@ -1625,9 +1625,9 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="22" t="s">
         <v>32</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="H18" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="46"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1652,9 +1652,9 @@
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="22" t="s">
         <v>33</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="H19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="46"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1679,9 +1679,9 @@
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="21" t="s">
         <v>35</v>
       </c>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="46"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1704,9 +1704,9 @@
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="27" t="s">
         <v>34</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="H21" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="47"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1731,13 +1731,13 @@
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -1751,7 +1751,7 @@
       <c r="H22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="36" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="3"/>
@@ -1766,9 +1766,9 @@
       <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="22" t="s">
         <v>32</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="H23" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="46"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1793,9 +1793,9 @@
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="22" t="s">
         <v>45</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="H24" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="46"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1820,9 +1820,9 @@
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="21" t="s">
         <v>47</v>
       </c>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="46"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1845,9 +1845,9 @@
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="44"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="27" t="s">
         <v>48</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="H26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="47"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1872,13 +1872,13 @@
       <c r="S26" s="3"/>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="43" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -1892,7 +1892,7 @@
       <c r="H27" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J27" s="3"/>
@@ -1907,9 +1907,9 @@
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="43"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="22" t="s">
         <v>32</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="H28" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="46"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1934,9 +1934,9 @@
       <c r="S28" s="3"/>
     </row>
     <row r="29" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="22" t="s">
         <v>52</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="H29" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="46"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1961,9 +1961,9 @@
       <c r="S29" s="3"/>
     </row>
     <row r="30" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="21" t="s">
         <v>53</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="H30" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="46"/>
+      <c r="I30" s="37"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1988,9 +1988,9 @@
       <c r="S30" s="3"/>
     </row>
     <row r="31" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="20" t="s">
         <v>54</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="H31" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="46"/>
+      <c r="I31" s="37"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2015,10 +2015,10 @@
       <c r="S31" s="3"/>
     </row>
     <row r="32" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="59" t="s">
@@ -2031,7 +2031,7 @@
       <c r="F32" s="24"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J32" s="3"/>
@@ -2046,8 +2046,8 @@
       <c r="S32" s="3"/>
     </row>
     <row r="33" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="60"/>
       <c r="D33" s="29" t="s">
         <v>62</v>
@@ -2060,7 +2060,7 @@
       <c r="H33" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="46"/>
+      <c r="I33" s="37"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2073,8 +2073,8 @@
       <c r="S33" s="3"/>
     </row>
     <row r="34" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="40"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="60"/>
       <c r="D34" s="29" t="s">
         <v>63</v>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="46"/>
+      <c r="I34" s="37"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2098,8 +2098,8 @@
       <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="60"/>
       <c r="D35" s="30" t="s">
         <v>64</v>
@@ -2112,7 +2112,7 @@
       <c r="H35" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="47"/>
+      <c r="I35" s="38"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2125,14 +2125,14 @@
       <c r="S35" s="3"/>
     </row>
     <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="42" t="s">
-        <v>76</v>
+      <c r="C36" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>22</v>
@@ -2145,14 +2145,14 @@
       <c r="H36" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="43"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="22" t="s">
         <v>32</v>
       </c>
@@ -2164,15 +2164,15 @@
       <c r="H37" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="46"/>
+      <c r="I37" s="37"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="43"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="22"/>
@@ -2182,34 +2182,34 @@
       <c r="H38" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I38" s="46"/>
+      <c r="I38" s="37"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="43"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="23"/>
       <c r="G39" s="21"/>
       <c r="H39" s="32"/>
-      <c r="I39" s="46"/>
+      <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="43"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="34"/>
-      <c r="I40" s="46"/>
+      <c r="I40" s="37"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2222,19 +2222,19 @@
       <c r="S40" s="3"/>
     </row>
     <row r="41" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="34"/>
-      <c r="I41" s="46"/>
+      <c r="I41" s="37"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2247,17 +2247,17 @@
       <c r="S41" s="3"/>
     </row>
     <row r="42" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="34"/>
-      <c r="I42" s="46"/>
+      <c r="I42" s="37"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2270,21 +2270,21 @@
       <c r="S42" s="3"/>
     </row>
     <row r="43" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="38"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="44"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="47"/>
+        <v>83</v>
+      </c>
+      <c r="I43" s="38"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -8001,22 +8001,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A36:A43"/>
     <mergeCell ref="B36:B43"/>
     <mergeCell ref="C36:C43"/>
@@ -8033,6 +8017,22 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/ScenarioTest_finalweb.xlsx
+++ b/ScenarioTest_finalweb.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>Created By</t>
   </si>
   <si>
-    <t>Nama Anda</t>
-  </si>
-  <si>
     <t>Reviewed By</t>
   </si>
   <si>
@@ -36,21 +33,12 @@
     <t>QA Tester’s Log</t>
   </si>
   <si>
-    <t>Review comments from Bill incorprate in version 2.1</t>
-  </si>
-  <si>
     <t>Last Tested</t>
   </si>
   <si>
-    <t>16-Oct-2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tester's Name </t>
   </si>
   <si>
-    <t>Mark</t>
-  </si>
-  <si>
     <t>Test Case Result</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
   </si>
   <si>
     <t>Site opened</t>
-  </si>
-  <si>
-    <t>winda</t>
   </si>
   <si>
     <t>LOGIN_001</t>
@@ -287,6 +272,12 @@
   </si>
   <si>
     <t>WP-3  Winda - Add rating</t>
+  </si>
+  <si>
+    <t>Winda</t>
+  </si>
+  <si>
+    <t>final project web  https://kotakoki.wijaysali.my.id/</t>
   </si>
 </sst>
 </file>
@@ -769,7 +760,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:C43"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1036,15 +1027,15 @@
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="50"/>
       <c r="G1" s="47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="48"/>
       <c r="I1" s="2"/>
@@ -1071,9 +1062,7 @@
     <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="C2" s="13"/>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1102,19 +1091,19 @@
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="50"/>
-      <c r="G3" s="52" t="s">
-        <v>7</v>
+      <c r="G3" s="52">
+        <v>44754</v>
       </c>
       <c r="H3" s="48"/>
       <c r="I3" s="4"/>
@@ -1170,24 +1159,24 @@
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="55" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1213,13 +1202,11 @@
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="3"/>
       <c r="E6" s="56"/>
       <c r="F6" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -1370,29 +1357,29 @@
     </row>
     <row r="11" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" s="54"/>
       <c r="F11" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
@@ -1416,27 +1403,27 @@
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
@@ -1463,15 +1450,15 @@
       <c r="B13" s="42"/>
       <c r="C13" s="44"/>
       <c r="D13" s="22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="4"/>
@@ -1499,15 +1486,15 @@
       <c r="B14" s="42"/>
       <c r="C14" s="44"/>
       <c r="D14" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="22"/>
       <c r="G14" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I14" s="37"/>
       <c r="J14" s="4"/>
@@ -1535,11 +1522,11 @@
       <c r="B15" s="42"/>
       <c r="C15" s="44"/>
       <c r="D15" s="21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -1569,15 +1556,15 @@
       <c r="B16" s="42"/>
       <c r="C16" s="58"/>
       <c r="D16" s="27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I16" s="38"/>
       <c r="J16" s="3"/>
@@ -1593,25 +1580,25 @@
     </row>
     <row r="17" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1629,15 +1616,15 @@
       <c r="B18" s="42"/>
       <c r="C18" s="44"/>
       <c r="D18" s="22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I18" s="37"/>
       <c r="J18" s="3"/>
@@ -1656,15 +1643,15 @@
       <c r="B19" s="42"/>
       <c r="C19" s="44"/>
       <c r="D19" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="22"/>
       <c r="G19" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I19" s="37"/>
       <c r="J19" s="3"/>
@@ -1683,11 +1670,11 @@
       <c r="B20" s="42"/>
       <c r="C20" s="44"/>
       <c r="D20" s="21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
@@ -1708,15 +1695,15 @@
       <c r="B21" s="46"/>
       <c r="C21" s="58"/>
       <c r="D21" s="27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="3"/>
@@ -1732,27 +1719,27 @@
     </row>
     <row r="22" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1770,15 +1757,15 @@
       <c r="B23" s="42"/>
       <c r="C23" s="44"/>
       <c r="D23" s="22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I23" s="37"/>
       <c r="J23" s="3"/>
@@ -1797,15 +1784,15 @@
       <c r="B24" s="42"/>
       <c r="C24" s="44"/>
       <c r="D24" s="22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="22"/>
       <c r="G24" s="20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="3"/>
@@ -1824,11 +1811,11 @@
       <c r="B25" s="42"/>
       <c r="C25" s="44"/>
       <c r="D25" s="21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -1849,15 +1836,15 @@
       <c r="B26" s="46"/>
       <c r="C26" s="58"/>
       <c r="D26" s="27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="3"/>
@@ -1873,27 +1860,27 @@
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1911,15 +1898,15 @@
       <c r="B28" s="42"/>
       <c r="C28" s="44"/>
       <c r="D28" s="22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I28" s="37"/>
       <c r="J28" s="3"/>
@@ -1938,15 +1925,15 @@
       <c r="B29" s="42"/>
       <c r="C29" s="44"/>
       <c r="D29" s="22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="22"/>
       <c r="G29" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I29" s="37"/>
       <c r="J29" s="3"/>
@@ -1965,15 +1952,15 @@
       <c r="B30" s="42"/>
       <c r="C30" s="44"/>
       <c r="D30" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="23"/>
       <c r="G30" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I30" s="37"/>
       <c r="J30" s="3"/>
@@ -1992,15 +1979,15 @@
       <c r="B31" s="42"/>
       <c r="C31" s="44"/>
       <c r="D31" s="20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="3"/>
@@ -2016,23 +2003,23 @@
     </row>
     <row r="32" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2050,15 +2037,15 @@
       <c r="B33" s="42"/>
       <c r="C33" s="60"/>
       <c r="D33" s="29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I33" s="37"/>
       <c r="J33" s="3"/>
@@ -2077,7 +2064,7 @@
       <c r="B34" s="42"/>
       <c r="C34" s="60"/>
       <c r="D34" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="22">
@@ -2102,15 +2089,15 @@
       <c r="B35" s="42"/>
       <c r="C35" s="60"/>
       <c r="D35" s="30" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="23"/>
       <c r="G35" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I35" s="38"/>
       <c r="J35" s="3"/>
@@ -2126,27 +2113,27 @@
     </row>
     <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2154,15 +2141,15 @@
       <c r="B37" s="42"/>
       <c r="C37" s="44"/>
       <c r="D37" s="22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H37" s="32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I37" s="37"/>
       <c r="J37" s="3"/>
@@ -2172,15 +2159,15 @@
       <c r="B38" s="42"/>
       <c r="C38" s="44"/>
       <c r="D38" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="22"/>
       <c r="G38" s="20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I38" s="37"/>
       <c r="J38" s="3"/>
@@ -2190,7 +2177,7 @@
       <c r="B39" s="42"/>
       <c r="C39" s="44"/>
       <c r="D39" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="23"/>
@@ -2203,7 +2190,7 @@
       <c r="B40" s="42"/>
       <c r="C40" s="44"/>
       <c r="D40" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -2226,11 +2213,11 @@
       <c r="B41" s="42"/>
       <c r="C41" s="44"/>
       <c r="D41" s="20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="34"/>
@@ -2251,7 +2238,7 @@
       <c r="B42" s="42"/>
       <c r="C42" s="44"/>
       <c r="D42" s="20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
@@ -2274,15 +2261,15 @@
       <c r="B43" s="46"/>
       <c r="C43" s="58"/>
       <c r="D43" s="27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I43" s="38"/>
       <c r="J43" s="3"/>
